--- a/Output Data/Merge Sort on Ascending Array Results.xlsx
+++ b/Output Data/Merge Sort on Ascending Array Results.xlsx
@@ -401,7 +401,7 @@
         <v>5044.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>792440.0</v>
+        <v>132573.0</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>11088.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>326299.0</v>
+        <v>270704.0</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>18076.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>569634.0</v>
+        <v>356663.0</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>24176.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>819383.0</v>
+        <v>460582.0</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         <v>32004.0</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>938698.0</v>
+        <v>597003.0</v>
       </c>
     </row>
     <row r="7">
@@ -456,7 +456,7 @@
         <v>39152.0</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>1142261.0</v>
+        <v>722734.0</v>
       </c>
     </row>
     <row r="8">
@@ -467,7 +467,7 @@
         <v>46180.0</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>1244898.0</v>
+        <v>818955.0</v>
       </c>
     </row>
     <row r="9">
@@ -478,7 +478,7 @@
         <v>52352.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>1522017.0</v>
+        <v>965641.0</v>
       </c>
     </row>
     <row r="10">
@@ -489,7 +489,7 @@
         <v>60796.0</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>1774760.0</v>
+        <v>1060152.0</v>
       </c>
     </row>
     <row r="11">
@@ -500,7 +500,7 @@
         <v>69008.0</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>1992007.0</v>
+        <v>1178183.0</v>
       </c>
     </row>
     <row r="12">
@@ -511,7 +511,7 @@
         <v>77012.0</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>1672123.0</v>
+        <v>1303914.0</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +522,7 @@
         <v>84304.0</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>2299490.0</v>
+        <v>1425795.0</v>
       </c>
     </row>
     <row r="14">
@@ -533,7 +533,7 @@
         <v>92036.0</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>2819516.0</v>
+        <v>1596428.0</v>
       </c>
     </row>
     <row r="15">
@@ -544,7 +544,7 @@
         <v>99360.0</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>2875538.0</v>
+        <v>1696499.0</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>106364.0</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>3202264.0</v>
+        <v>2729281.0</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +566,7 @@
         <v>112704.0</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>3561066.0</v>
+        <v>1997567.0</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +577,7 @@
         <v>121188.0</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>3980593.0</v>
+        <v>2045892.0</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>130592.0</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>3493497.0</v>
+        <v>2188728.0</v>
       </c>
     </row>
     <row r="20">
@@ -599,7 +599,7 @@
         <v>139580.0</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>4485651.0</v>
+        <v>2296069.0</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +610,7 @@
         <v>148016.0</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>3807821.0</v>
+        <v>2412389.0</v>
       </c>
     </row>
     <row r="22">
@@ -621,7 +621,7 @@
         <v>156508.0</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>3033342.0</v>
+        <v>3309606.0</v>
       </c>
     </row>
     <row r="23">
@@ -632,7 +632,7 @@
         <v>165024.0</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>3754792.0</v>
+        <v>2670265.0</v>
       </c>
     </row>
     <row r="24">
@@ -643,7 +643,7 @@
         <v>173052.0</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>4278667.0</v>
+        <v>3662419.0</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>180608.0</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>3957928.0</v>
+        <v>3044033.0</v>
       </c>
     </row>
     <row r="26">
@@ -665,7 +665,7 @@
         <v>188476.0</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>4562201.0</v>
+        <v>3144532.0</v>
       </c>
     </row>
     <row r="27">
@@ -676,7 +676,7 @@
         <v>197072.0</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>4300477.0</v>
+        <v>3164204.0</v>
       </c>
     </row>
     <row r="28">
@@ -687,7 +687,7 @@
         <v>205068.0</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>4480947.0</v>
+        <v>3395992.0</v>
       </c>
     </row>
     <row r="29">
@@ -698,7 +698,7 @@
         <v>212720.0</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>4696056.0</v>
+        <v>3407538.0</v>
       </c>
     </row>
     <row r="30">
@@ -709,7 +709,7 @@
         <v>220044.0</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>5220359.0</v>
+        <v>3532840.0</v>
       </c>
     </row>
     <row r="31">
@@ -720,7 +720,7 @@
         <v>227728.0</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>5499188.0</v>
+        <v>5366189.0</v>
       </c>
     </row>
     <row r="32">
@@ -731,7 +731,7 @@
         <v>234708.0</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>3724857.0</v>
+        <v>5643735.0</v>
       </c>
     </row>
     <row r="33">
@@ -742,7 +742,7 @@
         <v>241408.0</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>5296908.0</v>
+        <v>3880095.0</v>
       </c>
     </row>
     <row r="34">
@@ -753,7 +753,7 @@
         <v>248588.0</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>5757063.0</v>
+        <v>4035332.0</v>
       </c>
     </row>
     <row r="35">
@@ -764,7 +764,7 @@
         <v>259376.0</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>5960626.0</v>
+        <v>4152938.0</v>
       </c>
     </row>
     <row r="36">
@@ -775,7 +775,7 @@
         <v>269364.0</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>5854569.0</v>
+        <v>4279950.0</v>
       </c>
     </row>
     <row r="37">
@@ -786,7 +786,7 @@
         <v>279184.0</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>6383147.0</v>
+        <v>4535686.0</v>
       </c>
     </row>
     <row r="38">
@@ -797,7 +797,7 @@
         <v>288292.0</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>6271102.0</v>
+        <v>4512593.0</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         <v>298160.0</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>6361336.0</v>
+        <v>4754645.0</v>
       </c>
     </row>
     <row r="40">
@@ -819,7 +819,7 @@
         <v>307140.0</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>6479796.0</v>
+        <v>4832050.0</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +830,7 @@
         <v>316032.0</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>7063115.0</v>
+        <v>4904751.0</v>
       </c>
     </row>
     <row r="42">
@@ -841,7 +841,7 @@
         <v>324084.0</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>4794417.0</v>
+        <v>5045449.0</v>
       </c>
     </row>
     <row r="43">
@@ -852,7 +852,7 @@
         <v>334016.0</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>7481787.0</v>
+        <v>5200686.0</v>
       </c>
     </row>
     <row r="44">
@@ -863,7 +863,7 @@
         <v>342996.0</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>8175440.0</v>
+        <v>5473529.0</v>
       </c>
     </row>
     <row r="45">
@@ -874,7 +874,7 @@
         <v>352048.0</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>7884208.0</v>
+        <v>5460272.0</v>
       </c>
     </row>
     <row r="46">
@@ -885,7 +885,7 @@
         <v>360124.0</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>8018492.0</v>
+        <v>5732260.0</v>
       </c>
     </row>
     <row r="47">
@@ -896,7 +896,7 @@
         <v>369104.0</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>8221627.0</v>
+        <v>5859700.0</v>
       </c>
     </row>
     <row r="48">
@@ -907,7 +907,7 @@
         <v>377212.0</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>8047145.0</v>
+        <v>8893897.0</v>
       </c>
     </row>
     <row r="49">
@@ -918,7 +918,7 @@
         <v>385216.0</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>8557334.0</v>
+        <v>7059694.0</v>
       </c>
     </row>
     <row r="50">
@@ -929,7 +929,7 @@
         <v>392388.0</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>8107016.0</v>
+        <v>9004659.0</v>
       </c>
     </row>
     <row r="51">
@@ -940,7 +940,7 @@
         <v>401952.0</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>8535524.0</v>
+        <v>6373311.0</v>
       </c>
     </row>
     <row r="52">
@@ -951,7 +951,7 @@
         <v>411140.0</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>5842166.0</v>
+        <v>6539668.0</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         <v>420144.0</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>8627470.0</v>
+        <v>7475801.0</v>
       </c>
     </row>
     <row r="54">
@@ -973,7 +973,7 @@
         <v>428364.0</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>9283061.0</v>
+        <v>7555344.0</v>
       </c>
     </row>
     <row r="55">
@@ -984,7 +984,7 @@
         <v>437136.0</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>9471656.0</v>
+        <v>6709019.0</v>
       </c>
     </row>
     <row r="56">
@@ -995,7 +995,7 @@
         <v>445436.0</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>1.3627587E7</v>
+        <v>7812791.0</v>
       </c>
     </row>
     <row r="57">
@@ -1006,7 +1006,7 @@
         <v>453440.0</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>9416489.0</v>
+        <v>7220063.0</v>
       </c>
     </row>
     <row r="58">
@@ -1017,7 +1017,7 @@
         <v>460780.0</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>1.0039579E7</v>
+        <v>8181855.0</v>
       </c>
     </row>
     <row r="59">
@@ -1028,7 +1028,7 @@
         <v>469088.0</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>9661962.0</v>
+        <v>7241875.0</v>
       </c>
     </row>
     <row r="60">
@@ -1039,7 +1039,7 @@
         <v>477452.0</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>1.3846546E7</v>
+        <v>7663540.0</v>
       </c>
     </row>
     <row r="61">
@@ -1050,7 +1050,7 @@
         <v>485456.0</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>9833878.0</v>
+        <v>7624624.0</v>
       </c>
     </row>
     <row r="62">
@@ -1061,7 +1061,7 @@
         <v>492868.0</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>7420633.0</v>
+        <v>8646714.0</v>
       </c>
     </row>
     <row r="63">
@@ -1072,7 +1072,7 @@
         <v>500416.0</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>1.1045846E7</v>
+        <v>8976435.0</v>
       </c>
     </row>
     <row r="64">
@@ -1083,7 +1083,7 @@
         <v>507860.0</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>1.1060386E7</v>
+        <v>7874800.0</v>
       </c>
     </row>
     <row r="65">
@@ -1094,7 +1094,7 @@
         <v>514816.0</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>1.1171576E7</v>
+        <v>1.246822E7</v>
       </c>
     </row>
     <row r="66">
@@ -1105,7 +1105,7 @@
         <v>521372.0</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>1.4704417E7</v>
+        <v>8679216.0</v>
       </c>
     </row>
     <row r="67">
@@ -1116,7 +1116,7 @@
         <v>530176.0</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>1.1085191E7</v>
+        <v>8438019.0</v>
       </c>
     </row>
     <row r="68">
@@ -1127,7 +1127,7 @@
         <v>541748.0</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>1.1227171E7</v>
+        <v>8435453.0</v>
       </c>
     </row>
     <row r="69">
@@ -1138,7 +1138,7 @@
         <v>552752.0</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>1.148077E7</v>
+        <v>8644148.0</v>
       </c>
     </row>
     <row r="70">
@@ -1149,7 +1149,7 @@
         <v>563356.0</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>1.1575709E7</v>
+        <v>8700170.0</v>
       </c>
     </row>
     <row r="71">
@@ -1160,7 +1160,7 @@
         <v>573728.0</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>1.1825458E7</v>
+        <v>1.000494E7</v>
       </c>
     </row>
     <row r="72">
@@ -1171,7 +1171,7 @@
         <v>584388.0</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>8485916.0</v>
+        <v>9211216.0</v>
       </c>
     </row>
     <row r="73">
@@ -1182,7 +1182,7 @@
         <v>594368.0</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>1.193451E7</v>
+        <v>9313425.0</v>
       </c>
     </row>
     <row r="74">
@@ -1193,7 +1193,7 @@
         <v>604068.0</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>1.2282191E7</v>
+        <v>1.03492E7</v>
       </c>
     </row>
     <row r="75">
@@ -1204,7 +1204,7 @@
         <v>613584.0</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>1.2390815E7</v>
+        <v>9609788.0</v>
       </c>
     </row>
     <row r="76">
@@ -1215,7 +1215,7 @@
         <v>624316.0</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>1.4507269E7</v>
+        <v>1.4116822E7</v>
       </c>
     </row>
     <row r="77">
@@ -1226,7 +1226,7 @@
         <v>634320.0</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>1.3372278E7</v>
+        <v>9498171.0</v>
       </c>
     </row>
     <row r="78">
@@ -1237,7 +1237,7 @@
         <v>644116.0</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>1.3980829E7</v>
+        <v>1.0214062E7</v>
       </c>
     </row>
     <row r="79">
@@ -1248,7 +1248,7 @@
         <v>653280.0</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>1.30494E7</v>
+        <v>1.0366734E7</v>
       </c>
     </row>
     <row r="80">
@@ -1259,7 +1259,7 @@
         <v>663108.0</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>1.3423596E7</v>
+        <v>1.1950332E7</v>
       </c>
     </row>
     <row r="81">
@@ -1270,7 +1270,7 @@
         <v>672064.0</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>1.3919246E7</v>
+        <v>1.5545611E7</v>
       </c>
     </row>
     <row r="82">
@@ -1281,7 +1281,7 @@
         <v>680956.0</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>9832595.0</v>
+        <v>1.0676783E7</v>
       </c>
     </row>
     <row r="83">
@@ -1292,7 +1292,7 @@
         <v>689168.0</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>1.4403777E7</v>
+        <v>1.1511561E7</v>
       </c>
     </row>
     <row r="84">
@@ -1303,7 +1303,7 @@
         <v>700076.0</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>1.4163864E7</v>
+        <v>1.2176133E7</v>
       </c>
     </row>
     <row r="85">
@@ -1314,7 +1314,7 @@
         <v>710032.0</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>1.4504703E7</v>
+        <v>1.1633441E7</v>
       </c>
     </row>
     <row r="86">
@@ -1325,7 +1325,7 @@
         <v>719972.0</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>1.4245118E7</v>
+        <v>1.267777E7</v>
       </c>
     </row>
     <row r="87">
@@ -1336,7 +1336,7 @@
         <v>728992.0</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>1.4591516E7</v>
+        <v>1.2353609E7</v>
       </c>
     </row>
     <row r="88">
@@ -1347,7 +1347,7 @@
         <v>739028.0</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>1.5212896E7</v>
+        <v>1.1040287E7</v>
       </c>
     </row>
     <row r="89">
@@ -1358,7 +1358,7 @@
         <v>748096.0</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>1.4562437E7</v>
+        <v>1.11271E7</v>
       </c>
     </row>
     <row r="90">
@@ -1369,7 +1369,7 @@
         <v>757140.0</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>1.5112826E7</v>
+        <v>1.1250692E7</v>
       </c>
     </row>
     <row r="91">
@@ -1380,7 +1380,7 @@
         <v>765248.0</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>1.5658511E7</v>
+        <v>1.2657243E7</v>
       </c>
     </row>
     <row r="92">
@@ -1391,7 +1391,7 @@
         <v>775044.0</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>1.2197088E7</v>
+        <v>1.1508567E7</v>
       </c>
     </row>
     <row r="93">
@@ -1402,7 +1402,7 @@
         <v>784208.0</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>1.5454948E7</v>
+        <v>1.1800226E7</v>
       </c>
     </row>
     <row r="94">
@@ -1413,7 +1413,7 @@
         <v>793228.0</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>1.5669629E7</v>
+        <v>1.241006E7</v>
       </c>
     </row>
     <row r="95">
@@ -1424,7 +1424,7 @@
         <v>801424.0</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>1.6436411E7</v>
+        <v>1.4875906E7</v>
       </c>
     </row>
     <row r="96">
@@ -1435,7 +1435,7 @@
         <v>810220.0</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>1.7097135E7</v>
+        <v>1.4052674E7</v>
       </c>
     </row>
     <row r="97">
@@ -1446,7 +1446,7 @@
         <v>818432.0</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>1.6840115E7</v>
+        <v>1.2134223E7</v>
       </c>
     </row>
     <row r="98">
@@ -1457,7 +1457,7 @@
         <v>826476.0</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>1.7070193E7</v>
+        <v>1.1937503E7</v>
       </c>
     </row>
     <row r="99">
@@ -1468,7 +1468,7 @@
         <v>833776.0</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>1.6472334E7</v>
+        <v>1.2091885E7</v>
       </c>
     </row>
     <row r="100">
@@ -1479,7 +1479,7 @@
         <v>843572.0</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>1.6731064E7</v>
+        <v>1.3101574E7</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>853904.0</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>1.7314383E7</v>
+        <v>1.2383117E7</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Merge Sort on Ascending Array Results.xlsx
+++ b/Output Data/Merge Sort on Ascending Array Results.xlsx
@@ -401,7 +401,7 @@
         <v>5044.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>132573.0</v>
+        <v>131717.0</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>11088.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>270704.0</v>
+        <v>297218.0</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>18076.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>356663.0</v>
+        <v>354096.0</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>24176.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>460582.0</v>
+        <v>477261.0</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         <v>32004.0</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>597003.0</v>
+        <v>563646.0</v>
       </c>
     </row>
     <row r="7">
@@ -456,7 +456,7 @@
         <v>39152.0</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>722734.0</v>
+        <v>1061434.0</v>
       </c>
     </row>
     <row r="8">
@@ -467,7 +467,7 @@
         <v>46180.0</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>818955.0</v>
+        <v>793724.0</v>
       </c>
     </row>
     <row r="9">
@@ -478,7 +478,7 @@
         <v>52352.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>965641.0</v>
+        <v>929717.0</v>
       </c>
     </row>
     <row r="10">
@@ -489,7 +489,7 @@
         <v>60796.0</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>1060152.0</v>
+        <v>1028078.0</v>
       </c>
     </row>
     <row r="11">
@@ -500,7 +500,7 @@
         <v>69008.0</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>1178183.0</v>
+        <v>1162788.0</v>
       </c>
     </row>
     <row r="12">
@@ -511,7 +511,7 @@
         <v>77012.0</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>1303914.0</v>
+        <v>1286380.0</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +522,7 @@
         <v>84304.0</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>1425795.0</v>
+        <v>1405695.0</v>
       </c>
     </row>
     <row r="14">
@@ -533,7 +533,7 @@
         <v>92036.0</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>1596428.0</v>
+        <v>1525438.0</v>
       </c>
     </row>
     <row r="15">
@@ -544,7 +544,7 @@
         <v>99360.0</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>1696499.0</v>
+        <v>1643898.0</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>106364.0</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>2729281.0</v>
+        <v>3046599.0</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +566,7 @@
         <v>112704.0</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>1997567.0</v>
+        <v>1895358.0</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +577,7 @@
         <v>121188.0</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>2045892.0</v>
+        <v>2067701.0</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>130592.0</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>2188728.0</v>
+        <v>2174187.0</v>
       </c>
     </row>
     <row r="20">
@@ -599,7 +599,7 @@
         <v>139580.0</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>2296069.0</v>
+        <v>2244750.0</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +610,7 @@
         <v>148016.0</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>2412389.0</v>
+        <v>2406831.0</v>
       </c>
     </row>
     <row r="22">
@@ -621,7 +621,7 @@
         <v>156508.0</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>3309606.0</v>
+        <v>3386156.0</v>
       </c>
     </row>
     <row r="23">
@@ -632,7 +632,7 @@
         <v>165024.0</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>2670265.0</v>
+        <v>2600557.0</v>
       </c>
     </row>
     <row r="24">
@@ -643,7 +643,7 @@
         <v>173052.0</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>3662419.0</v>
+        <v>3851869.0</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>180608.0</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>3044033.0</v>
+        <v>2995281.0</v>
       </c>
     </row>
     <row r="26">
@@ -665,7 +665,7 @@
         <v>188476.0</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>3144532.0</v>
+        <v>3026927.0</v>
       </c>
     </row>
     <row r="27">
@@ -676,7 +676,7 @@
         <v>197072.0</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>3164204.0</v>
+        <v>3156934.0</v>
       </c>
     </row>
     <row r="28">
@@ -687,7 +687,7 @@
         <v>205068.0</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>3395992.0</v>
+        <v>3233911.0</v>
       </c>
     </row>
     <row r="29">
@@ -698,7 +698,7 @@
         <v>212720.0</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>3407538.0</v>
+        <v>3528992.0</v>
       </c>
     </row>
     <row r="30">
@@ -709,7 +709,7 @@
         <v>220044.0</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>3532840.0</v>
+        <v>3516162.0</v>
       </c>
     </row>
     <row r="31">
@@ -720,7 +720,7 @@
         <v>227728.0</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>5366189.0</v>
+        <v>3559355.0</v>
       </c>
     </row>
     <row r="32">
@@ -731,7 +731,7 @@
         <v>234708.0</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>5643735.0</v>
+        <v>5101044.0</v>
       </c>
     </row>
     <row r="33">
@@ -742,7 +742,7 @@
         <v>241408.0</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>3880095.0</v>
+        <v>3879667.0</v>
       </c>
     </row>
     <row r="34">
@@ -753,7 +753,7 @@
         <v>248588.0</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>4035332.0</v>
+        <v>4035333.0</v>
       </c>
     </row>
     <row r="35">
@@ -764,7 +764,7 @@
         <v>259376.0</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>4152938.0</v>
+        <v>4120863.0</v>
       </c>
     </row>
     <row r="36">
@@ -775,7 +775,7 @@
         <v>269364.0</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>4279950.0</v>
+        <v>4286792.0</v>
       </c>
     </row>
     <row r="37">
@@ -786,7 +786,7 @@
         <v>279184.0</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>4535686.0</v>
+        <v>4467689.0</v>
       </c>
     </row>
     <row r="38">
@@ -797,7 +797,7 @@
         <v>288292.0</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>4512593.0</v>
+        <v>4488645.0</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         <v>298160.0</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>4754645.0</v>
+        <v>4738394.0</v>
       </c>
     </row>
     <row r="40">
@@ -819,7 +819,7 @@
         <v>307140.0</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>4832050.0</v>
+        <v>4697767.0</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +830,7 @@
         <v>316032.0</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>4904751.0</v>
+        <v>4950082.0</v>
       </c>
     </row>
     <row r="42">
@@ -841,7 +841,7 @@
         <v>324084.0</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>5045449.0</v>
+        <v>4873960.0</v>
       </c>
     </row>
     <row r="43">
@@ -852,7 +852,7 @@
         <v>334016.0</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>5200686.0</v>
+        <v>5133546.0</v>
       </c>
     </row>
     <row r="44">
@@ -863,7 +863,7 @@
         <v>342996.0</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>5473529.0</v>
+        <v>5439745.0</v>
       </c>
     </row>
     <row r="45">
@@ -874,7 +874,7 @@
         <v>352048.0</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>5460272.0</v>
+        <v>5252005.0</v>
       </c>
     </row>
     <row r="46">
@@ -885,7 +885,7 @@
         <v>360124.0</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>5732260.0</v>
+        <v>5426488.0</v>
       </c>
     </row>
     <row r="47">
@@ -896,7 +896,7 @@
         <v>369104.0</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>5859700.0</v>
+        <v>5548369.0</v>
       </c>
     </row>
     <row r="48">
@@ -907,7 +907,7 @@
         <v>377212.0</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>8893897.0</v>
+        <v>5810092.0</v>
       </c>
     </row>
     <row r="49">
@@ -918,7 +918,7 @@
         <v>385216.0</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>7059694.0</v>
+        <v>6833893.0</v>
       </c>
     </row>
     <row r="50">
@@ -929,7 +929,7 @@
         <v>392388.0</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>9004659.0</v>
+        <v>5861410.0</v>
       </c>
     </row>
     <row r="51">
@@ -940,7 +940,7 @@
         <v>401952.0</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>6373311.0</v>
+        <v>6082934.0</v>
       </c>
     </row>
     <row r="52">
@@ -951,7 +951,7 @@
         <v>411140.0</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>6539668.0</v>
+        <v>6451572.0</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         <v>420144.0</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>7475801.0</v>
+        <v>7542514.0</v>
       </c>
     </row>
     <row r="54">
@@ -973,7 +973,7 @@
         <v>428364.0</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>7555344.0</v>
+        <v>7729399.0</v>
       </c>
     </row>
     <row r="55">
@@ -984,7 +984,7 @@
         <v>437136.0</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>6709019.0</v>
+        <v>6500752.0</v>
       </c>
     </row>
     <row r="56">
@@ -995,7 +995,7 @@
         <v>445436.0</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>7812791.0</v>
+        <v>8210936.0</v>
       </c>
     </row>
     <row r="57">
@@ -1006,7 +1006,7 @@
         <v>453440.0</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>7220063.0</v>
+        <v>6769317.0</v>
       </c>
     </row>
     <row r="58">
@@ -1017,7 +1017,7 @@
         <v>460780.0</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>8181855.0</v>
+        <v>8892187.0</v>
       </c>
     </row>
     <row r="59">
@@ -1028,7 +1028,7 @@
         <v>469088.0</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>7241875.0</v>
+        <v>6990414.0</v>
       </c>
     </row>
     <row r="60">
@@ -1039,7 +1039,7 @@
         <v>477452.0</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>7663540.0</v>
+        <v>7434318.0</v>
       </c>
     </row>
     <row r="61">
@@ -1050,7 +1050,7 @@
         <v>485456.0</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>7624624.0</v>
+        <v>7254704.0</v>
       </c>
     </row>
     <row r="62">
@@ -1061,7 +1061,7 @@
         <v>492868.0</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>8646714.0</v>
+        <v>7640019.0</v>
       </c>
     </row>
     <row r="63">
@@ -1072,7 +1072,7 @@
         <v>500416.0</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>8976435.0</v>
+        <v>9035451.0</v>
       </c>
     </row>
     <row r="64">
@@ -1083,7 +1083,7 @@
         <v>507860.0</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>7874800.0</v>
+        <v>7896611.0</v>
       </c>
     </row>
     <row r="65">
@@ -1094,7 +1094,7 @@
         <v>514816.0</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>1.246822E7</v>
+        <v>9014495.0</v>
       </c>
     </row>
     <row r="66">
@@ -1105,7 +1105,7 @@
         <v>521372.0</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>8679216.0</v>
+        <v>8015498.0</v>
       </c>
     </row>
     <row r="67">
@@ -1116,7 +1116,7 @@
         <v>530176.0</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>8438019.0</v>
+        <v>8024906.0</v>
       </c>
     </row>
     <row r="68">
@@ -1127,7 +1127,7 @@
         <v>541748.0</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>8435453.0</v>
+        <v>8319559.0</v>
       </c>
     </row>
     <row r="69">
@@ -1138,7 +1138,7 @@
         <v>552752.0</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>8644148.0</v>
+        <v>8816920.0</v>
       </c>
     </row>
     <row r="70">
@@ -1149,7 +1149,7 @@
         <v>563356.0</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>8700170.0</v>
+        <v>8836592.0</v>
       </c>
     </row>
     <row r="71">
@@ -1160,7 +1160,7 @@
         <v>573728.0</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>1.000494E7</v>
+        <v>9523830.0</v>
       </c>
     </row>
     <row r="72">
@@ -1171,7 +1171,7 @@
         <v>584388.0</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>9211216.0</v>
+        <v>8676222.0</v>
       </c>
     </row>
     <row r="73">
@@ -1182,7 +1182,7 @@
         <v>594368.0</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>9313425.0</v>
+        <v>1.0694315E7</v>
       </c>
     </row>
     <row r="74">
@@ -1193,7 +1193,7 @@
         <v>604068.0</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>1.03492E7</v>
+        <v>8924688.0</v>
       </c>
     </row>
     <row r="75">
@@ -1204,7 +1204,7 @@
         <v>613584.0</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>9609788.0</v>
+        <v>9055550.0</v>
       </c>
     </row>
     <row r="76">
@@ -1215,7 +1215,7 @@
         <v>624316.0</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>1.4116822E7</v>
+        <v>9564030.0</v>
       </c>
     </row>
     <row r="77">
@@ -1226,7 +1226,7 @@
         <v>634320.0</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>9498171.0</v>
+        <v>9318556.0</v>
       </c>
     </row>
     <row r="78">
@@ -1237,7 +1237,7 @@
         <v>644116.0</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>1.0214062E7</v>
+        <v>9415634.0</v>
       </c>
     </row>
     <row r="79">
@@ -1248,7 +1248,7 @@
         <v>653280.0</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>1.0366734E7</v>
+        <v>1.0175146E7</v>
       </c>
     </row>
     <row r="80">
@@ -1259,7 +1259,7 @@
         <v>663108.0</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>1.1950332E7</v>
+        <v>1.1221612E7</v>
       </c>
     </row>
     <row r="81">
@@ -1270,7 +1270,7 @@
         <v>672064.0</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>1.5545611E7</v>
+        <v>9788975.0</v>
       </c>
     </row>
     <row r="82">
@@ -1281,7 +1281,7 @@
         <v>680956.0</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>1.0676783E7</v>
+        <v>9908718.0</v>
       </c>
     </row>
     <row r="83">
@@ -1292,7 +1292,7 @@
         <v>689168.0</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>1.1511561E7</v>
+        <v>1.0062673E7</v>
       </c>
     </row>
     <row r="84">
@@ -1303,7 +1303,7 @@
         <v>700076.0</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>1.2176133E7</v>
+        <v>1.2281764E7</v>
       </c>
     </row>
     <row r="85">
@@ -1314,7 +1314,7 @@
         <v>710032.0</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>1.1633441E7</v>
+        <v>1.2269789E7</v>
       </c>
     </row>
     <row r="86">
@@ -1325,7 +1325,7 @@
         <v>719972.0</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>1.267777E7</v>
+        <v>1.2363017E7</v>
       </c>
     </row>
     <row r="87">
@@ -1336,7 +1336,7 @@
         <v>728992.0</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>1.2353609E7</v>
+        <v>1.0647274E7</v>
       </c>
     </row>
     <row r="88">
@@ -1347,7 +1347,7 @@
         <v>739028.0</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>1.1040287E7</v>
+        <v>1.2673066E7</v>
       </c>
     </row>
     <row r="89">
@@ -1358,7 +1358,7 @@
         <v>748096.0</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>1.11271E7</v>
+        <v>1.0829882E7</v>
       </c>
     </row>
     <row r="90">
@@ -1369,7 +1369,7 @@
         <v>757140.0</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>1.1250692E7</v>
+        <v>1.1263094E7</v>
       </c>
     </row>
     <row r="91">
@@ -1380,7 +1380,7 @@
         <v>765248.0</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>1.2657243E7</v>
+        <v>1.1307998E7</v>
       </c>
     </row>
     <row r="92">
@@ -1391,7 +1391,7 @@
         <v>775044.0</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>1.1508567E7</v>
+        <v>1.1328953E7</v>
       </c>
     </row>
     <row r="93">
@@ -1402,7 +1402,7 @@
         <v>784208.0</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>1.1800226E7</v>
+        <v>1.1468796E7</v>
       </c>
     </row>
     <row r="94">
@@ -1413,7 +1413,7 @@
         <v>793228.0</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>1.241006E7</v>
+        <v>1.148804E7</v>
       </c>
     </row>
     <row r="95">
@@ -1424,7 +1424,7 @@
         <v>801424.0</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>1.4875906E7</v>
+        <v>1.1592387E7</v>
       </c>
     </row>
     <row r="96">
@@ -1435,7 +1435,7 @@
         <v>810220.0</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>1.4052674E7</v>
+        <v>1.2176133E7</v>
       </c>
     </row>
     <row r="97">
@@ -1446,7 +1446,7 @@
         <v>818432.0</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>1.2134223E7</v>
+        <v>1.182674E7</v>
       </c>
     </row>
     <row r="98">
@@ -1457,7 +1457,7 @@
         <v>826476.0</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>1.1937503E7</v>
+        <v>1.1952043E7</v>
       </c>
     </row>
     <row r="99">
@@ -1468,7 +1468,7 @@
         <v>833776.0</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>1.2091885E7</v>
+        <v>1.2718825E7</v>
       </c>
     </row>
     <row r="100">
@@ -1479,7 +1479,7 @@
         <v>843572.0</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>1.3101574E7</v>
+        <v>1.4414896E7</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>853904.0</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>1.2383117E7</v>
+        <v>1.2368578E7</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Merge Sort on Ascending Array Results.xlsx
+++ b/Output Data/Merge Sort on Ascending Array Results.xlsx
@@ -401,7 +401,7 @@
         <v>5044.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>131717.0</v>
+        <v>144975.0</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>11088.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>297218.0</v>
+        <v>281396.0</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>18076.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>354096.0</v>
+        <v>373341.0</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>24176.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>477261.0</v>
+        <v>459727.0</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         <v>32004.0</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>563646.0</v>
+        <v>590588.0</v>
       </c>
     </row>
     <row r="7">
@@ -456,7 +456,7 @@
         <v>39152.0</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>1061434.0</v>
+        <v>689377.0</v>
       </c>
     </row>
     <row r="8">
@@ -467,7 +467,7 @@
         <v>46180.0</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>793724.0</v>
+        <v>813396.0</v>
       </c>
     </row>
     <row r="9">
@@ -478,7 +478,7 @@
         <v>52352.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>929717.0</v>
+        <v>1078113.0</v>
       </c>
     </row>
     <row r="10">
@@ -489,7 +489,7 @@
         <v>60796.0</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>1028078.0</v>
+        <v>1082817.0</v>
       </c>
     </row>
     <row r="11">
@@ -500,7 +500,7 @@
         <v>69008.0</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>1162788.0</v>
+        <v>1226081.0</v>
       </c>
     </row>
     <row r="12">
@@ -511,7 +511,7 @@
         <v>77012.0</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>1286380.0</v>
+        <v>1286807.0</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +522,7 @@
         <v>84304.0</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>1405695.0</v>
+        <v>1414676.0</v>
       </c>
     </row>
     <row r="14">
@@ -533,7 +533,7 @@
         <v>92036.0</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>1525438.0</v>
+        <v>2563779.0</v>
       </c>
     </row>
     <row r="15">
@@ -544,7 +544,7 @@
         <v>99360.0</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>1643898.0</v>
+        <v>1672122.0</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>106364.0</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>3046599.0</v>
+        <v>1839763.0</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +566,7 @@
         <v>112704.0</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>1895358.0</v>
+        <v>1893219.0</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +577,7 @@
         <v>121188.0</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>2067701.0</v>
+        <v>2079248.0</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>130592.0</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>2174187.0</v>
+        <v>2243467.0</v>
       </c>
     </row>
     <row r="20">
@@ -599,7 +599,7 @@
         <v>139580.0</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>2244750.0</v>
+        <v>2334557.0</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +610,7 @@
         <v>148016.0</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>2406831.0</v>
+        <v>2404264.0</v>
       </c>
     </row>
     <row r="22">
@@ -621,7 +621,7 @@
         <v>156508.0</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>3386156.0</v>
+        <v>2596280.0</v>
       </c>
     </row>
     <row r="23">
@@ -632,7 +632,7 @@
         <v>165024.0</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>2600557.0</v>
+        <v>2727143.0</v>
       </c>
     </row>
     <row r="24">
@@ -643,7 +643,7 @@
         <v>173052.0</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>3851869.0</v>
+        <v>2849451.0</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>180608.0</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>2995281.0</v>
+        <v>2890506.0</v>
       </c>
     </row>
     <row r="26">
@@ -665,7 +665,7 @@
         <v>188476.0</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>3026927.0</v>
+        <v>3232628.0</v>
       </c>
     </row>
     <row r="27">
@@ -676,7 +676,7 @@
         <v>197072.0</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>3156934.0</v>
+        <v>4847018.0</v>
       </c>
     </row>
     <row r="28">
@@ -687,7 +687,7 @@
         <v>205068.0</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>3233911.0</v>
+        <v>4683654.0</v>
       </c>
     </row>
     <row r="29">
@@ -698,7 +698,7 @@
         <v>212720.0</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>3528992.0</v>
+        <v>3650445.0</v>
       </c>
     </row>
     <row r="30">
@@ -709,7 +709,7 @@
         <v>220044.0</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>3516162.0</v>
+        <v>3552085.0</v>
       </c>
     </row>
     <row r="31">
@@ -720,7 +720,7 @@
         <v>227728.0</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>3559355.0</v>
+        <v>4911594.0</v>
       </c>
     </row>
     <row r="32">
@@ -731,7 +731,7 @@
         <v>234708.0</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>5101044.0</v>
+        <v>5811376.0</v>
       </c>
     </row>
     <row r="33">
@@ -742,7 +742,7 @@
         <v>241408.0</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>3879667.0</v>
+        <v>3931413.0</v>
       </c>
     </row>
     <row r="34">
@@ -753,7 +753,7 @@
         <v>248588.0</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>4035333.0</v>
+        <v>4035761.0</v>
       </c>
     </row>
     <row r="35">
@@ -764,7 +764,7 @@
         <v>259376.0</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>4120863.0</v>
+        <v>4230770.0</v>
       </c>
     </row>
     <row r="36">
@@ -775,7 +775,7 @@
         <v>269364.0</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>4286792.0</v>
+        <v>4342815.0</v>
       </c>
     </row>
     <row r="37">
@@ -786,7 +786,7 @@
         <v>279184.0</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>4467689.0</v>
+        <v>5803677.0</v>
       </c>
     </row>
     <row r="38">
@@ -797,7 +797,7 @@
         <v>288292.0</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>4488645.0</v>
+        <v>4587432.0</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         <v>298160.0</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>4738394.0</v>
+        <v>4758921.0</v>
       </c>
     </row>
     <row r="40">
@@ -819,7 +819,7 @@
         <v>307140.0</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>4697767.0</v>
+        <v>4851722.0</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +830,7 @@
         <v>316032.0</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>4950082.0</v>
+        <v>6307452.0</v>
       </c>
     </row>
     <row r="42">
@@ -841,7 +841,7 @@
         <v>324084.0</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>4873960.0</v>
+        <v>5069397.0</v>
       </c>
     </row>
     <row r="43">
@@ -852,7 +852,7 @@
         <v>334016.0</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>5133546.0</v>
+        <v>5188285.0</v>
       </c>
     </row>
     <row r="44">
@@ -863,7 +863,7 @@
         <v>342996.0</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>5439745.0</v>
+        <v>5432475.0</v>
       </c>
     </row>
     <row r="45">
@@ -874,7 +874,7 @@
         <v>352048.0</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>5252005.0</v>
+        <v>6576019.0</v>
       </c>
     </row>
     <row r="46">
@@ -885,7 +885,7 @@
         <v>360124.0</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>5426488.0</v>
+        <v>5669394.0</v>
       </c>
     </row>
     <row r="47">
@@ -896,7 +896,7 @@
         <v>369104.0</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>5548369.0</v>
+        <v>5800256.0</v>
       </c>
     </row>
     <row r="48">
@@ -907,7 +907,7 @@
         <v>377212.0</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>5810092.0</v>
+        <v>5893912.0</v>
       </c>
     </row>
     <row r="49">
@@ -918,7 +918,7 @@
         <v>385216.0</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>6833893.0</v>
+        <v>6091060.0</v>
       </c>
     </row>
     <row r="50">
@@ -929,7 +929,7 @@
         <v>392388.0</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>5861410.0</v>
+        <v>6056848.0</v>
       </c>
     </row>
     <row r="51">
@@ -940,7 +940,7 @@
         <v>401952.0</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>6082934.0</v>
+        <v>6310446.0</v>
       </c>
     </row>
     <row r="52">
@@ -951,7 +951,7 @@
         <v>411140.0</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>6451572.0</v>
+        <v>6458842.0</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         <v>420144.0</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>7542514.0</v>
+        <v>6856132.0</v>
       </c>
     </row>
     <row r="54">
@@ -973,7 +973,7 @@
         <v>428364.0</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>7729399.0</v>
+        <v>6685498.0</v>
       </c>
     </row>
     <row r="55">
@@ -984,7 +984,7 @@
         <v>437136.0</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>6500752.0</v>
+        <v>6729546.0</v>
       </c>
     </row>
     <row r="56">
@@ -995,7 +995,7 @@
         <v>445436.0</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>8210936.0</v>
+        <v>6967749.0</v>
       </c>
     </row>
     <row r="57">
@@ -1006,7 +1006,7 @@
         <v>453440.0</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>6769317.0</v>
+        <v>6996401.0</v>
       </c>
     </row>
     <row r="58">
@@ -1017,7 +1017,7 @@
         <v>460780.0</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>8892187.0</v>
+        <v>7205951.0</v>
       </c>
     </row>
     <row r="59">
@@ -1028,7 +1028,7 @@
         <v>469088.0</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>6990414.0</v>
+        <v>7233749.0</v>
       </c>
     </row>
     <row r="60">
@@ -1039,7 +1039,7 @@
         <v>477452.0</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>7434318.0</v>
+        <v>8922122.0</v>
       </c>
     </row>
     <row r="61">
@@ -1050,7 +1050,7 @@
         <v>485456.0</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>7254704.0</v>
+        <v>9440866.0</v>
       </c>
     </row>
     <row r="62">
@@ -1061,7 +1061,7 @@
         <v>492868.0</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>7640019.0</v>
+        <v>7572022.0</v>
       </c>
     </row>
     <row r="63">
@@ -1072,7 +1072,7 @@
         <v>500416.0</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>9035451.0</v>
+        <v>7754202.0</v>
       </c>
     </row>
     <row r="64">
@@ -1083,7 +1083,7 @@
         <v>507860.0</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>7896611.0</v>
+        <v>7862398.0</v>
       </c>
     </row>
     <row r="65">
@@ -1094,7 +1094,7 @@
         <v>514816.0</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>9014495.0</v>
+        <v>8169025.0</v>
       </c>
     </row>
     <row r="66">
@@ -1105,7 +1105,7 @@
         <v>521372.0</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>8015498.0</v>
+        <v>8045862.0</v>
       </c>
     </row>
     <row r="67">
@@ -1116,7 +1116,7 @@
         <v>530176.0</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>8024906.0</v>
+        <v>9804370.0</v>
       </c>
     </row>
     <row r="68">
@@ -1127,7 +1127,7 @@
         <v>541748.0</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>8319559.0</v>
+        <v>8649707.0</v>
       </c>
     </row>
     <row r="69">
@@ -1138,7 +1138,7 @@
         <v>552752.0</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>8816920.0</v>
+        <v>8519273.0</v>
       </c>
     </row>
     <row r="70">
@@ -1149,7 +1149,7 @@
         <v>563356.0</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>8836592.0</v>
+        <v>8589409.0</v>
       </c>
     </row>
     <row r="71">
@@ -1160,7 +1160,7 @@
         <v>573728.0</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>9523830.0</v>
+        <v>8779286.0</v>
       </c>
     </row>
     <row r="72">
@@ -1171,7 +1171,7 @@
         <v>584388.0</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>8676222.0</v>
+        <v>9143647.0</v>
       </c>
     </row>
     <row r="73">
@@ -1182,7 +1182,7 @@
         <v>594368.0</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>1.0694315E7</v>
+        <v>8997389.0</v>
       </c>
     </row>
     <row r="74">
@@ -1193,7 +1193,7 @@
         <v>604068.0</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>8924688.0</v>
+        <v>9297602.0</v>
       </c>
     </row>
     <row r="75">
@@ -1204,7 +1204,7 @@
         <v>613584.0</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>9055550.0</v>
+        <v>9239440.0</v>
       </c>
     </row>
     <row r="76">
@@ -1215,7 +1215,7 @@
         <v>624316.0</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>9564030.0</v>
+        <v>1.1274641E7</v>
       </c>
     </row>
     <row r="77">
@@ -1226,7 +1226,7 @@
         <v>634320.0</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>9318556.0</v>
+        <v>9771869.0</v>
       </c>
     </row>
     <row r="78">
@@ -1237,7 +1237,7 @@
         <v>644116.0</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>9415634.0</v>
+        <v>9791968.0</v>
       </c>
     </row>
     <row r="79">
@@ -1248,7 +1248,7 @@
         <v>653280.0</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>1.0175146E7</v>
+        <v>9810358.0</v>
       </c>
     </row>
     <row r="80">
@@ -1259,7 +1259,7 @@
         <v>663108.0</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>1.1221612E7</v>
+        <v>9975859.0</v>
       </c>
     </row>
     <row r="81">
@@ -1270,7 +1270,7 @@
         <v>672064.0</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>9788975.0</v>
+        <v>1.0078068E7</v>
       </c>
     </row>
     <row r="82">
@@ -1281,7 +1281,7 @@
         <v>680956.0</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>9908718.0</v>
+        <v>1.0236728E7</v>
       </c>
     </row>
     <row r="83">
@@ -1292,7 +1292,7 @@
         <v>689168.0</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>1.0062673E7</v>
+        <v>1.0329956E7</v>
       </c>
     </row>
     <row r="84">
@@ -1303,7 +1303,7 @@
         <v>700076.0</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>1.2281764E7</v>
+        <v>1.047493E7</v>
       </c>
     </row>
     <row r="85">
@@ -1314,7 +1314,7 @@
         <v>710032.0</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>1.2269789E7</v>
+        <v>1.0659249E7</v>
       </c>
     </row>
     <row r="86">
@@ -1325,7 +1325,7 @@
         <v>719972.0</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>1.2363017E7</v>
+        <v>1.2402361E7</v>
       </c>
     </row>
     <row r="87">
@@ -1336,7 +1336,7 @@
         <v>728992.0</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>1.0647274E7</v>
+        <v>1.3117825E7</v>
       </c>
     </row>
     <row r="88">
@@ -1347,7 +1347,7 @@
         <v>739028.0</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>1.2673066E7</v>
+        <v>1.3757166E7</v>
       </c>
     </row>
     <row r="89">
@@ -1358,7 +1358,7 @@
         <v>748096.0</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>1.0829882E7</v>
+        <v>1.3147333E7</v>
       </c>
     </row>
     <row r="90">
@@ -1369,7 +1369,7 @@
         <v>757140.0</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>1.1263094E7</v>
+        <v>1.3353462E7</v>
       </c>
     </row>
     <row r="91">
@@ -1380,7 +1380,7 @@
         <v>765248.0</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>1.1307998E7</v>
+        <v>1.303486E7</v>
       </c>
     </row>
     <row r="92">
@@ -1391,7 +1391,7 @@
         <v>775044.0</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>1.1328953E7</v>
+        <v>1.3756311E7</v>
       </c>
     </row>
     <row r="93">
@@ -1402,7 +1402,7 @@
         <v>784208.0</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>1.1468796E7</v>
+        <v>1.2217188E7</v>
       </c>
     </row>
     <row r="94">
@@ -1413,7 +1413,7 @@
         <v>793228.0</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>1.148804E7</v>
+        <v>1.4112973E7</v>
       </c>
     </row>
     <row r="95">
@@ -1424,7 +1424,7 @@
         <v>801424.0</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>1.1592387E7</v>
+        <v>1.4660796E7</v>
       </c>
     </row>
     <row r="96">
@@ -1435,7 +1435,7 @@
         <v>810220.0</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>1.2176133E7</v>
+        <v>1.2821461E7</v>
       </c>
     </row>
     <row r="97">
@@ -1446,7 +1446,7 @@
         <v>818432.0</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>1.182674E7</v>
+        <v>1.5259938E7</v>
       </c>
     </row>
     <row r="98">
@@ -1457,7 +1457,7 @@
         <v>826476.0</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>1.1952043E7</v>
+        <v>1.2432725E7</v>
       </c>
     </row>
     <row r="99">
@@ -1468,7 +1468,7 @@
         <v>833776.0</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>1.2718825E7</v>
+        <v>1.2341635E7</v>
       </c>
     </row>
     <row r="100">
@@ -1479,7 +1479,7 @@
         <v>843572.0</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>1.4414896E7</v>
+        <v>1.2584969E7</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>853904.0</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>1.2368578E7</v>
+        <v>1.2711555E7</v>
       </c>
     </row>
   </sheetData>
